--- a/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_asd.xlsx
+++ b/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_asd.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{60B82F68-418B-4BAA-B6E7-0A009960C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B4D417-6FF3-41D8-81EF-BE28A25B9FB2}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="1320" windowWidth="18270" windowHeight="11385" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
   </bookViews>
   <sheets>
     <sheet name="15-09-2023" sheetId="1" r:id="rId1"/>
@@ -4521,6 +4521,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4550,15 +4559,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4698,6 +4698,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5019,48 +5023,48 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>1376</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="str">
@@ -5255,13 +5259,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="str">
+      <c r="A23" s="14" t="str">
         <f>UPPER("Alfa Romeo")</f>
         <v>ALFA ROMEO</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -5390,13 +5394,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="24" t="str">
+      <c r="A33" s="14" t="str">
         <f>UPPER("Audi")</f>
         <v>AUDI</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -6197,12 +6201,12 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="26"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -10699,13 +10703,13 @@
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="24" t="str">
+      <c r="A413" s="14" t="str">
         <f>UPPER("Chevrolet")</f>
         <v>CHEVROLET</v>
       </c>
-      <c r="B413" s="25"/>
-      <c r="C413" s="25"/>
-      <c r="D413" s="26"/>
+      <c r="B413" s="15"/>
+      <c r="C413" s="15"/>
+      <c r="D413" s="16"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
@@ -10904,13 +10908,13 @@
       </c>
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="24" t="str">
+      <c r="A428" s="14" t="str">
         <f>UPPER("Cupra")</f>
         <v>CUPRA</v>
       </c>
-      <c r="B428" s="25"/>
-      <c r="C428" s="25"/>
-      <c r="D428" s="26"/>
+      <c r="B428" s="15"/>
+      <c r="C428" s="15"/>
+      <c r="D428" s="16"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
@@ -10955,13 +10959,13 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="24" t="str">
+      <c r="A432" s="14" t="str">
         <f>UPPER("Ferrari")</f>
         <v>FERRARI</v>
       </c>
-      <c r="B432" s="25"/>
-      <c r="C432" s="25"/>
-      <c r="D432" s="26"/>
+      <c r="B432" s="15"/>
+      <c r="C432" s="15"/>
+      <c r="D432" s="16"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
@@ -11034,13 +11038,13 @@
       </c>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="24" t="str">
+      <c r="A438" s="14" t="str">
         <f>UPPER("Lamborghini")</f>
         <v>LAMBORGHINI</v>
       </c>
-      <c r="B438" s="25"/>
-      <c r="C438" s="25"/>
-      <c r="D438" s="26"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="15"/>
+      <c r="D438" s="16"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
@@ -11304,13 +11308,13 @@
       </c>
     </row>
     <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="24" t="str">
+      <c r="A458" s="14" t="str">
         <f>UPPER("Mercedes-AMG")</f>
         <v>MERCEDES-AMG</v>
       </c>
-      <c r="B458" s="25"/>
-      <c r="C458" s="25"/>
-      <c r="D458" s="26"/>
+      <c r="B458" s="15"/>
+      <c r="C458" s="15"/>
+      <c r="D458" s="16"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
@@ -12433,12 +12437,12 @@
       </c>
     </row>
     <row r="539" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="24" t="s">
+      <c r="A539" s="14" t="s">
         <v>866</v>
       </c>
-      <c r="B539" s="25"/>
-      <c r="C539" s="25"/>
-      <c r="D539" s="26"/>
+      <c r="B539" s="15"/>
+      <c r="C539" s="15"/>
+      <c r="D539" s="16"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
@@ -12833,13 +12837,13 @@
       </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="24" t="str">
+      <c r="A568" s="14" t="str">
         <f>UPPER("Nissan")</f>
         <v>NISSAN</v>
       </c>
-      <c r="B568" s="25"/>
-      <c r="C568" s="25"/>
-      <c r="D568" s="26"/>
+      <c r="B568" s="15"/>
+      <c r="C568" s="15"/>
+      <c r="D568" s="16"/>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
@@ -12968,13 +12972,13 @@
       </c>
     </row>
     <row r="578" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="24" t="str">
+      <c r="A578" s="14" t="str">
         <f>UPPER("Porsche")</f>
         <v>PORSCHE</v>
       </c>
-      <c r="B578" s="25"/>
-      <c r="C578" s="25"/>
-      <c r="D578" s="26"/>
+      <c r="B578" s="15"/>
+      <c r="C578" s="15"/>
+      <c r="D578" s="16"/>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
@@ -16379,13 +16383,13 @@
       </c>
     </row>
     <row r="822" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A822" s="24" t="str">
+      <c r="A822" s="14" t="str">
         <f>UPPER("Renault")</f>
         <v>RENAULT</v>
       </c>
-      <c r="B822" s="25"/>
-      <c r="C822" s="25"/>
-      <c r="D822" s="26"/>
+      <c r="B822" s="15"/>
+      <c r="C822" s="15"/>
+      <c r="D822" s="16"/>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
@@ -16500,13 +16504,13 @@
       </c>
     </row>
     <row r="831" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="24" t="str">
+      <c r="A831" s="14" t="str">
         <f>UPPER("Toyota")</f>
         <v>TOYOTA</v>
       </c>
-      <c r="B831" s="25"/>
-      <c r="C831" s="25"/>
-      <c r="D831" s="26"/>
+      <c r="B831" s="15"/>
+      <c r="C831" s="15"/>
+      <c r="D831" s="16"/>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
@@ -16635,13 +16639,13 @@
       </c>
     </row>
     <row r="841" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="24" t="str">
+      <c r="A841" s="14" t="str">
         <f>UPPER("Volkswagen")</f>
         <v>VOLKSWAGEN</v>
       </c>
-      <c r="B841" s="25"/>
-      <c r="C841" s="25"/>
-      <c r="D841" s="26"/>
+      <c r="B841" s="15"/>
+      <c r="C841" s="15"/>
+      <c r="D841" s="16"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
@@ -16841,13 +16845,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A822:D822"/>
-    <mergeCell ref="A831:D831"/>
-    <mergeCell ref="A841:D841"/>
-    <mergeCell ref="A578:D578"/>
-    <mergeCell ref="A458:D458"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A568:D568"/>
     <mergeCell ref="A2:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A432:D432"/>
@@ -16859,6 +16856,13 @@
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A413:D413"/>
     <mergeCell ref="A428:D428"/>
+    <mergeCell ref="A822:D822"/>
+    <mergeCell ref="A831:D831"/>
+    <mergeCell ref="A841:D841"/>
+    <mergeCell ref="A578:D578"/>
+    <mergeCell ref="A458:D458"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A568:D568"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_asd.xlsx
+++ b/Akrapovic/Akrapovic 2023-09-15 - 31 August 2023/akrapovic_catalogue_asd.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{60B82F68-418B-4BAA-B6E7-0A009960C4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0B4D417-6FF3-41D8-81EF-BE28A25B9FB2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B85A7B54-4291-4764-9DD3-8095E3A1003F}"/>
   </bookViews>
   <sheets>
     <sheet name="15-09-2023" sheetId="1" r:id="rId1"/>
@@ -4521,15 +4521,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4559,6 +4550,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5004,7 +5004,7 @@
   <dimension ref="A1:F855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -5023,48 +5023,48 @@
       <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="14" t="s">
         <v>1376</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="str">
@@ -5259,13 +5259,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="str">
+      <c r="A23" s="24" t="str">
         <f>UPPER("Alfa Romeo")</f>
         <v>ALFA ROMEO</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -5394,13 +5394,13 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="str">
+      <c r="A33" s="24" t="str">
         <f>UPPER("Audi")</f>
         <v>AUDI</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="16"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
@@ -6201,12 +6201,12 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="26"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
@@ -10703,13 +10703,13 @@
       </c>
     </row>
     <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A413" s="14" t="str">
+      <c r="A413" s="24" t="str">
         <f>UPPER("Chevrolet")</f>
         <v>CHEVROLET</v>
       </c>
-      <c r="B413" s="15"/>
-      <c r="C413" s="15"/>
-      <c r="D413" s="16"/>
+      <c r="B413" s="25"/>
+      <c r="C413" s="25"/>
+      <c r="D413" s="26"/>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
@@ -10908,13 +10908,13 @@
       </c>
     </row>
     <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A428" s="14" t="str">
+      <c r="A428" s="24" t="str">
         <f>UPPER("Cupra")</f>
         <v>CUPRA</v>
       </c>
-      <c r="B428" s="15"/>
-      <c r="C428" s="15"/>
-      <c r="D428" s="16"/>
+      <c r="B428" s="25"/>
+      <c r="C428" s="25"/>
+      <c r="D428" s="26"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
@@ -10959,13 +10959,13 @@
       </c>
     </row>
     <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A432" s="14" t="str">
+      <c r="A432" s="24" t="str">
         <f>UPPER("Ferrari")</f>
         <v>FERRARI</v>
       </c>
-      <c r="B432" s="15"/>
-      <c r="C432" s="15"/>
-      <c r="D432" s="16"/>
+      <c r="B432" s="25"/>
+      <c r="C432" s="25"/>
+      <c r="D432" s="26"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
@@ -11038,13 +11038,13 @@
       </c>
     </row>
     <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A438" s="14" t="str">
+      <c r="A438" s="24" t="str">
         <f>UPPER("Lamborghini")</f>
         <v>LAMBORGHINI</v>
       </c>
-      <c r="B438" s="15"/>
-      <c r="C438" s="15"/>
-      <c r="D438" s="16"/>
+      <c r="B438" s="25"/>
+      <c r="C438" s="25"/>
+      <c r="D438" s="26"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
@@ -11308,13 +11308,13 @@
       </c>
     </row>
     <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A458" s="14" t="str">
+      <c r="A458" s="24" t="str">
         <f>UPPER("Mercedes-AMG")</f>
         <v>MERCEDES-AMG</v>
       </c>
-      <c r="B458" s="15"/>
-      <c r="C458" s="15"/>
-      <c r="D458" s="16"/>
+      <c r="B458" s="25"/>
+      <c r="C458" s="25"/>
+      <c r="D458" s="26"/>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
@@ -12437,12 +12437,12 @@
       </c>
     </row>
     <row r="539" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A539" s="14" t="s">
+      <c r="A539" s="24" t="s">
         <v>866</v>
       </c>
-      <c r="B539" s="15"/>
-      <c r="C539" s="15"/>
-      <c r="D539" s="16"/>
+      <c r="B539" s="25"/>
+      <c r="C539" s="25"/>
+      <c r="D539" s="26"/>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
@@ -12837,13 +12837,13 @@
       </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A568" s="14" t="str">
+      <c r="A568" s="24" t="str">
         <f>UPPER("Nissan")</f>
         <v>NISSAN</v>
       </c>
-      <c r="B568" s="15"/>
-      <c r="C568" s="15"/>
-      <c r="D568" s="16"/>
+      <c r="B568" s="25"/>
+      <c r="C568" s="25"/>
+      <c r="D568" s="26"/>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
@@ -12972,13 +12972,13 @@
       </c>
     </row>
     <row r="578" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A578" s="14" t="str">
+      <c r="A578" s="24" t="str">
         <f>UPPER("Porsche")</f>
         <v>PORSCHE</v>
       </c>
-      <c r="B578" s="15"/>
-      <c r="C578" s="15"/>
-      <c r="D578" s="16"/>
+      <c r="B578" s="25"/>
+      <c r="C578" s="25"/>
+      <c r="D578" s="26"/>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
@@ -16383,13 +16383,13 @@
       </c>
     </row>
     <row r="822" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A822" s="14" t="str">
+      <c r="A822" s="24" t="str">
         <f>UPPER("Renault")</f>
         <v>RENAULT</v>
       </c>
-      <c r="B822" s="15"/>
-      <c r="C822" s="15"/>
-      <c r="D822" s="16"/>
+      <c r="B822" s="25"/>
+      <c r="C822" s="25"/>
+      <c r="D822" s="26"/>
     </row>
     <row r="823" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
@@ -16504,13 +16504,13 @@
       </c>
     </row>
     <row r="831" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="14" t="str">
+      <c r="A831" s="24" t="str">
         <f>UPPER("Toyota")</f>
         <v>TOYOTA</v>
       </c>
-      <c r="B831" s="15"/>
-      <c r="C831" s="15"/>
-      <c r="D831" s="16"/>
+      <c r="B831" s="25"/>
+      <c r="C831" s="25"/>
+      <c r="D831" s="26"/>
     </row>
     <row r="832" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
@@ -16639,13 +16639,13 @@
       </c>
     </row>
     <row r="841" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="14" t="str">
+      <c r="A841" s="24" t="str">
         <f>UPPER("Volkswagen")</f>
         <v>VOLKSWAGEN</v>
       </c>
-      <c r="B841" s="15"/>
-      <c r="C841" s="15"/>
-      <c r="D841" s="16"/>
+      <c r="B841" s="25"/>
+      <c r="C841" s="25"/>
+      <c r="D841" s="26"/>
     </row>
     <row r="842" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
@@ -16845,6 +16845,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A822:D822"/>
+    <mergeCell ref="A831:D831"/>
+    <mergeCell ref="A841:D841"/>
+    <mergeCell ref="A578:D578"/>
+    <mergeCell ref="A458:D458"/>
+    <mergeCell ref="A539:D539"/>
+    <mergeCell ref="A568:D568"/>
     <mergeCell ref="A2:D7"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A432:D432"/>
@@ -16856,13 +16863,6 @@
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A413:D413"/>
     <mergeCell ref="A428:D428"/>
-    <mergeCell ref="A822:D822"/>
-    <mergeCell ref="A831:D831"/>
-    <mergeCell ref="A841:D841"/>
-    <mergeCell ref="A578:D578"/>
-    <mergeCell ref="A458:D458"/>
-    <mergeCell ref="A539:D539"/>
-    <mergeCell ref="A568:D568"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
